--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -29,10 +29,49 @@
     <t xml:space="preserve">y</t>
   </si>
   <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
     <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
   </si>
   <si>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
     <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
@@ -388,459 +427,717 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="n">
-        <v>79.2218384911282</v>
+        <v>73.8610351305732</v>
       </c>
       <c r="C2" t="n">
-        <v>74.3253306314459</v>
+        <v>72.5008958144439</v>
       </c>
       <c r="D2" t="n">
-        <v>84.1183463508105</v>
+        <v>75.2211744467024</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="n">
-        <v>76.5144216996025</v>
+        <v>43.8153897887997</v>
       </c>
       <c r="C3" t="n">
-        <v>72.059792960113</v>
+        <v>36.9700598000226</v>
       </c>
       <c r="D3" t="n">
-        <v>80.9690504390919</v>
+        <v>50.6607197775768</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" t="n">
-        <v>83.2001762759941</v>
+        <v>75.4548681249542</v>
       </c>
       <c r="C4" t="n">
-        <v>78.551053376733</v>
+        <v>70.8483883392499</v>
       </c>
       <c r="D4" t="n">
-        <v>87.8492991752552</v>
+        <v>80.0613479106585</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" t="n">
-        <v>71.927282176675</v>
+        <v>91.6624205763447</v>
       </c>
       <c r="C5" t="n">
-        <v>68.5530072852656</v>
+        <v>89.1254778756233</v>
       </c>
       <c r="D5" t="n">
-        <v>75.3015570680844</v>
+        <v>94.1993632770661</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="n">
-        <v>81.623866910021</v>
+        <v>73.4470360160576</v>
       </c>
       <c r="C6" t="n">
-        <v>75.7838822080725</v>
+        <v>69.223645331117</v>
       </c>
       <c r="D6" t="n">
-        <v>87.4638516119694</v>
+        <v>77.6704267009981</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
+        <v>64.8131869221428</v>
+      </c>
+      <c r="C7" t="n">
+        <v>59.3441699004888</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.2822039437968</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68.7524836220219</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61.4252446030235</v>
+      </c>
+      <c r="D8" t="n">
+        <v>76.0797226410202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79.8689004606212</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72.7448459523304</v>
+      </c>
+      <c r="D9" t="n">
+        <v>86.992954968912</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>71.7804445346153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65.9694945926551</v>
+      </c>
+      <c r="D10" t="n">
+        <v>77.5913944765756</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
         <v>84.0970246035313</v>
       </c>
-      <c r="C7" t="n">
-        <v>80.0478220275675</v>
-      </c>
-      <c r="D7" t="n">
-        <v>88.1462271794951</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C11" t="n">
+        <v>77.2292342701752</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90.9648149368874</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>84.9897051692317</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75.646437900879</v>
+      </c>
+      <c r="D12" t="n">
+        <v>94.3329724375844</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72.4125768100581</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68.7511860121357</v>
+      </c>
+      <c r="D13" t="n">
+        <v>76.0739676079804</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79.9057228710031</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.5699194207528</v>
+      </c>
+      <c r="D14" t="n">
+        <v>83.2415263212535</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50.655987954425</v>
+      </c>
+      <c r="C15" t="n">
+        <v>46.1271009855664</v>
+      </c>
+      <c r="D15" t="n">
+        <v>55.1848749232836</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8" t="n">
-        <v>74.741502922337</v>
-      </c>
-      <c r="C8" t="n">
-        <v>68.8002806138004</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80.6827252308736</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9" t="n">
-        <v>70.6128902307044</v>
-      </c>
-      <c r="C9" t="n">
-        <v>63.4796640449875</v>
-      </c>
-      <c r="D9" t="n">
-        <v>77.7461164164212</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="n">
-        <v>67.8453225569575</v>
-      </c>
-      <c r="C10" t="n">
-        <v>62.3517610256726</v>
-      </c>
-      <c r="D10" t="n">
-        <v>73.3388840882425</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="n">
-        <v>65.649945608931</v>
-      </c>
-      <c r="C11" t="n">
-        <v>62.6541718611356</v>
-      </c>
-      <c r="D11" t="n">
-        <v>68.6457193567265</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12" t="n">
-        <v>73.7993305340746</v>
-      </c>
-      <c r="C12" t="n">
-        <v>68.7654436022794</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78.8332174658698</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13" t="n">
-        <v>71.954543138091</v>
-      </c>
-      <c r="C13" t="n">
-        <v>67.3385870282996</v>
-      </c>
-      <c r="D13" t="n">
-        <v>76.5704992478825</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14" t="n">
-        <v>76.5290626262376</v>
-      </c>
-      <c r="C14" t="n">
-        <v>70.7279443078947</v>
-      </c>
-      <c r="D14" t="n">
-        <v>82.3301809445805</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15" t="n">
-        <v>63.7762985277505</v>
-      </c>
-      <c r="C15" t="n">
-        <v>60.1423468882754</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67.4102501672256</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16"/>
       <c r="B16" t="n">
-        <v>66.2344913257599</v>
+        <v>69.2201376910046</v>
       </c>
       <c r="C16" t="n">
-        <v>59.0888759669899</v>
+        <v>67.7922840724785</v>
       </c>
       <c r="D16" t="n">
-        <v>73.38010668453</v>
+        <v>70.6479913095308</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
+        <v>43.977674989159</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37.0113075156517</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50.9440424626663</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71.0418604153053</v>
+      </c>
+      <c r="C18" t="n">
+        <v>66.1466386952307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75.9370821353799</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89.4011963218066</v>
+      </c>
+      <c r="C19" t="n">
+        <v>86.57967363691</v>
+      </c>
+      <c r="D19" t="n">
+        <v>92.2227190067033</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>65.5000976638159</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60.8018008695887</v>
+      </c>
+      <c r="D20" t="n">
+        <v>70.1983944580431</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>53.3725923418689</v>
+      </c>
+      <c r="C21" t="n">
+        <v>47.8914985875627</v>
+      </c>
+      <c r="D21" t="n">
+        <v>58.8536860961751</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57.9997988633446</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50.2825302399745</v>
+      </c>
+      <c r="D22" t="n">
+        <v>65.7170674867147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="n">
+        <v>72.8010151230608</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64.8864850577296</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80.7155451883921</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="n">
+        <v>69.3899744619249</v>
+      </c>
+      <c r="C24" t="n">
+        <v>63.3475333257023</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75.4324155981475</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="n">
         <v>82.9596895936391</v>
       </c>
-      <c r="C17" t="n">
-        <v>78.8773693048814</v>
-      </c>
-      <c r="D17" t="n">
-        <v>87.0420098823967</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="n">
-        <v>67.709616852932</v>
-      </c>
-      <c r="C18" t="n">
-        <v>61.2943205836559</v>
-      </c>
-      <c r="D18" t="n">
-        <v>74.1249131222081</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19" t="n">
-        <v>57.0899704000207</v>
-      </c>
-      <c r="C19" t="n">
-        <v>49.1512966318626</v>
-      </c>
-      <c r="D19" t="n">
-        <v>65.0286441681789</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20" t="n">
-        <v>69.7268038304646</v>
-      </c>
-      <c r="C20" t="n">
-        <v>64.2888926997195</v>
-      </c>
-      <c r="D20" t="n">
-        <v>75.1647149612096</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="n">
-        <v>64.7803281282082</v>
-      </c>
-      <c r="C21" t="n">
-        <v>61.8036820757821</v>
-      </c>
-      <c r="D21" t="n">
-        <v>67.7569741806344</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="n">
-        <v>69.2675928730754</v>
-      </c>
-      <c r="C22" t="n">
-        <v>63.4075883081442</v>
-      </c>
-      <c r="D22" t="n">
-        <v>75.1275974380067</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="n">
-        <v>68.5116706036794</v>
-      </c>
-      <c r="C23" t="n">
-        <v>63.5252922099851</v>
-      </c>
-      <c r="D23" t="n">
-        <v>73.4980489973737</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="n">
-        <v>78.9080588152204</v>
-      </c>
-      <c r="C24" t="n">
-        <v>74.2882314440082</v>
-      </c>
-      <c r="D24" t="n">
-        <v>83.5278861864326</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="n">
-        <v>58.6747863816527</v>
-      </c>
       <c r="C25" t="n">
-        <v>54.8708159529806</v>
+        <v>76.035728815974</v>
       </c>
       <c r="D25" t="n">
-        <v>62.4787568103248</v>
+        <v>89.8836503713041</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
       <c r="B26" t="n">
-        <v>53.7932601345037</v>
+        <v>83.8138739112859</v>
       </c>
       <c r="C26" t="n">
-        <v>46.0752224630335</v>
+        <v>74.3352956527011</v>
       </c>
       <c r="D26" t="n">
-        <v>61.5112978059738</v>
+        <v>93.2924521698707</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
+        <v>67.6127439211239</v>
+      </c>
+      <c r="C27" t="n">
+        <v>63.815289243351</v>
+      </c>
+      <c r="D27" t="n">
+        <v>71.4101985988969</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n">
+        <v>79.9609185713601</v>
+      </c>
+      <c r="C28" t="n">
+        <v>76.6438847764468</v>
+      </c>
+      <c r="D28" t="n">
+        <v>83.2779523662734</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n">
+        <v>50.0526761494562</v>
+      </c>
+      <c r="C29" t="n">
+        <v>45.4730880996409</v>
+      </c>
+      <c r="D29" t="n">
+        <v>54.6322641992715</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>68.2230493525959</v>
+      </c>
+      <c r="C30" t="n">
+        <v>66.7801873237022</v>
+      </c>
+      <c r="D30" t="n">
+        <v>69.6659113814897</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40.0726121730411</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33.0436213737712</v>
+      </c>
+      <c r="D31" t="n">
+        <v>47.101602972311</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>70.5096250440257</v>
+      </c>
+      <c r="C32" t="n">
+        <v>65.5601874998381</v>
+      </c>
+      <c r="D32" t="n">
+        <v>75.4590625882132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="n">
+        <v>85.8094575178289</v>
+      </c>
+      <c r="C33" t="n">
+        <v>82.6071962730562</v>
+      </c>
+      <c r="D33" t="n">
+        <v>89.0117187626016</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="n">
+        <v>65.453531060582</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60.7088210906247</v>
+      </c>
+      <c r="D34" t="n">
+        <v>70.1982410305392</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>59.0497228374048</v>
+      </c>
+      <c r="C35" t="n">
+        <v>53.5373732963115</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64.5620723784982</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52.9697465266289</v>
+      </c>
+      <c r="C36" t="n">
+        <v>44.5466803525695</v>
+      </c>
+      <c r="D36" t="n">
+        <v>61.3928127006883</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="n">
+        <v>68.1133885660857</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59.7639747143344</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76.4628024178371</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="n">
+        <v>62.4933592998215</v>
+      </c>
+      <c r="C38" t="n">
+        <v>56.3373373427846</v>
+      </c>
+      <c r="D38" t="n">
+        <v>68.6493812568584</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="n">
         <v>82.1857770240346</v>
       </c>
-      <c r="C27" t="n">
-        <v>78.2210970492523</v>
-      </c>
-      <c r="D27" t="n">
-        <v>86.1504569988168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28"/>
-      <c r="B28" t="n">
-        <v>73.8167804849821</v>
-      </c>
-      <c r="C28" t="n">
-        <v>67.5733680367153</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80.0601929332488</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29" t="n">
-        <v>63.996117685235</v>
-      </c>
-      <c r="C29" t="n">
-        <v>56.5586902660495</v>
-      </c>
-      <c r="D29" t="n">
-        <v>71.4335451044204</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30"/>
-      <c r="B30" t="n">
-        <v>70.3790419741579</v>
-      </c>
-      <c r="C30" t="n">
-        <v>64.9439856785242</v>
-      </c>
-      <c r="D30" t="n">
-        <v>75.8140982697915</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="n">
-        <v>62.4690690810083</v>
-      </c>
-      <c r="C31" t="n">
-        <v>59.5299292963272</v>
-      </c>
-      <c r="D31" t="n">
-        <v>65.4082088656895</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
+      <c r="C39" t="n">
+        <v>75.4613441771106</v>
+      </c>
+      <c r="D39" t="n">
+        <v>88.9102098709585</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="n">
+        <v>80.9588089320726</v>
+      </c>
+      <c r="C40" t="n">
+        <v>71.420029923746</v>
+      </c>
+      <c r="D40" t="n">
+        <v>90.4975879403993</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="n">
+        <v>65.761912489692</v>
+      </c>
+      <c r="C41" t="n">
+        <v>61.9583909849812</v>
+      </c>
+      <c r="D41" t="n">
+        <v>69.5654339944027</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="n">
+        <v>78.0881738086362</v>
+      </c>
+      <c r="C42" t="n">
+        <v>74.624672563147</v>
+      </c>
+      <c r="D42" t="n">
+        <v>81.5516750541253</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n">
+        <v>48.4661400062087</v>
+      </c>
+      <c r="C43" t="n">
+        <v>44.1407583453868</v>
+      </c>
+      <c r="D43" t="n">
+        <v>52.7915216670307</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
@@ -431,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.8610351305732</v>
+        <v>73.8161485502559</v>
       </c>
       <c r="C2" t="n">
-        <v>72.5008958144439</v>
+        <v>72.4542861110033</v>
       </c>
       <c r="D2" t="n">
-        <v>75.2211744467024</v>
+        <v>75.1780109895084</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -448,13 +448,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>43.8153897887997</v>
+        <v>43.8285876250807</v>
       </c>
       <c r="C3" t="n">
-        <v>36.9700598000226</v>
+        <v>36.981532036591</v>
       </c>
       <c r="D3" t="n">
-        <v>50.6607197775768</v>
+        <v>50.6756432135703</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -468,10 +468,10 @@
         <v>75.4548681249542</v>
       </c>
       <c r="C4" t="n">
-        <v>70.8483883392499</v>
+        <v>70.8472369591563</v>
       </c>
       <c r="D4" t="n">
-        <v>80.0613479106585</v>
+        <v>80.062499290752</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -485,10 +485,10 @@
         <v>91.6624205763447</v>
       </c>
       <c r="C5" t="n">
-        <v>89.1254778756233</v>
+        <v>89.1248437720431</v>
       </c>
       <c r="D5" t="n">
-        <v>94.1993632770661</v>
+        <v>94.1999973806463</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -502,10 +502,10 @@
         <v>73.4470360160576</v>
       </c>
       <c r="C6" t="n">
-        <v>69.223645331117</v>
+        <v>69.2225897033517</v>
       </c>
       <c r="D6" t="n">
-        <v>77.6704267009981</v>
+        <v>77.6714823287634</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -516,13 +516,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>64.8131869221428</v>
+        <v>64.8131869221429</v>
       </c>
       <c r="C7" t="n">
-        <v>59.3441699004888</v>
+        <v>59.3428029309974</v>
       </c>
       <c r="D7" t="n">
-        <v>70.2822039437968</v>
+        <v>70.2835709132883</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -536,10 +536,10 @@
         <v>68.7524836220219</v>
       </c>
       <c r="C8" t="n">
-        <v>61.4252446030235</v>
+        <v>61.4234131747877</v>
       </c>
       <c r="D8" t="n">
-        <v>76.0797226410202</v>
+        <v>76.081554069256</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -553,10 +553,10 @@
         <v>79.8689004606212</v>
       </c>
       <c r="C9" t="n">
-        <v>72.7448459523304</v>
+        <v>72.7430653096427</v>
       </c>
       <c r="D9" t="n">
-        <v>86.992954968912</v>
+        <v>86.9947356115996</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -570,10 +570,10 @@
         <v>71.7804445346153</v>
       </c>
       <c r="C10" t="n">
-        <v>65.9694945926551</v>
+        <v>65.9680421577375</v>
       </c>
       <c r="D10" t="n">
-        <v>77.5913944765756</v>
+        <v>77.5928469114932</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -587,10 +587,10 @@
         <v>84.0970246035313</v>
       </c>
       <c r="C11" t="n">
-        <v>77.2292342701752</v>
+        <v>77.227517680188</v>
       </c>
       <c r="D11" t="n">
-        <v>90.9648149368874</v>
+        <v>90.9665315268747</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -604,10 +604,10 @@
         <v>84.9897051692317</v>
       </c>
       <c r="C12" t="n">
-        <v>75.646437900879</v>
+        <v>75.6441025705525</v>
       </c>
       <c r="D12" t="n">
-        <v>94.3329724375844</v>
+        <v>94.3353077679108</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -621,10 +621,10 @@
         <v>72.4125768100581</v>
       </c>
       <c r="C13" t="n">
-        <v>68.7511860121357</v>
+        <v>68.7502708550797</v>
       </c>
       <c r="D13" t="n">
-        <v>76.0739676079804</v>
+        <v>76.0748827650365</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -638,10 +638,10 @@
         <v>79.9057228710031</v>
       </c>
       <c r="C14" t="n">
-        <v>76.5699194207528</v>
+        <v>76.5690856435808</v>
       </c>
       <c r="D14" t="n">
-        <v>83.2415263212535</v>
+        <v>83.2423600984255</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -655,10 +655,10 @@
         <v>50.655987954425</v>
       </c>
       <c r="C15" t="n">
-        <v>46.1271009855664</v>
+        <v>46.1259689996369</v>
       </c>
       <c r="D15" t="n">
-        <v>55.1848749232836</v>
+        <v>55.1860069092131</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -669,13 +669,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>69.2201376910046</v>
+        <v>69.211130206042</v>
       </c>
       <c r="C16" t="n">
-        <v>67.7922840724785</v>
+        <v>67.7830711918507</v>
       </c>
       <c r="D16" t="n">
-        <v>70.6479913095308</v>
+        <v>70.6391892202333</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -686,13 +686,13 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>43.977674989159</v>
+        <v>43.9777455537456</v>
       </c>
       <c r="C17" t="n">
-        <v>37.0113075156517</v>
+        <v>37.0123347353316</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9440424626663</v>
+        <v>50.9431563721596</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -706,10 +706,10 @@
         <v>71.0418604153053</v>
       </c>
       <c r="C18" t="n">
-        <v>66.1466386952307</v>
+        <v>66.1454151446879</v>
       </c>
       <c r="D18" t="n">
-        <v>75.9370821353799</v>
+        <v>75.9383056859227</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -723,10 +723,10 @@
         <v>89.4011963218066</v>
       </c>
       <c r="C19" t="n">
-        <v>86.57967363691</v>
+        <v>86.5789684031514</v>
       </c>
       <c r="D19" t="n">
-        <v>92.2227190067033</v>
+        <v>92.2234242404618</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -740,10 +740,10 @@
         <v>65.5000976638159</v>
       </c>
       <c r="C20" t="n">
-        <v>60.8018008695887</v>
+        <v>60.8006265400238</v>
       </c>
       <c r="D20" t="n">
-        <v>70.1983944580431</v>
+        <v>70.199568787608</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -757,10 +757,10 @@
         <v>53.3725923418689</v>
       </c>
       <c r="C21" t="n">
-        <v>47.8914985875627</v>
+        <v>47.8901285995169</v>
       </c>
       <c r="D21" t="n">
-        <v>58.8536860961751</v>
+        <v>58.8550560842209</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -774,10 +774,10 @@
         <v>57.9997988633446</v>
       </c>
       <c r="C22" t="n">
-        <v>50.2825302399745</v>
+        <v>50.2806013246459</v>
       </c>
       <c r="D22" t="n">
-        <v>65.7170674867147</v>
+        <v>65.7189964020433</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>72.8010151230608</v>
       </c>
       <c r="C23" t="n">
-        <v>64.8864850577296</v>
+        <v>64.8845068373116</v>
       </c>
       <c r="D23" t="n">
-        <v>80.7155451883921</v>
+        <v>80.7175234088101</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -808,10 +808,10 @@
         <v>69.3899744619249</v>
       </c>
       <c r="C24" t="n">
-        <v>63.3475333257023</v>
+        <v>63.3460230300396</v>
       </c>
       <c r="D24" t="n">
-        <v>75.4324155981475</v>
+        <v>75.4339258938102</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -825,10 +825,10 @@
         <v>82.9596895936391</v>
       </c>
       <c r="C25" t="n">
-        <v>76.035728815974</v>
+        <v>76.0339981863004</v>
       </c>
       <c r="D25" t="n">
-        <v>89.8836503713041</v>
+        <v>89.8853810009777</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -842,10 +842,10 @@
         <v>83.8138739112859</v>
       </c>
       <c r="C26" t="n">
-        <v>74.3352956527011</v>
+        <v>74.3329265016726</v>
       </c>
       <c r="D26" t="n">
-        <v>93.2924521698707</v>
+        <v>93.2948213208992</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -856,13 +856,13 @@
         <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>67.6127439211239</v>
+        <v>67.612743921124</v>
       </c>
       <c r="C27" t="n">
-        <v>63.815289243351</v>
+        <v>63.8143400774096</v>
       </c>
       <c r="D27" t="n">
-        <v>71.4101985988969</v>
+        <v>71.4111477648383</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -876,10 +876,10 @@
         <v>79.9609185713601</v>
       </c>
       <c r="C28" t="n">
-        <v>76.6438847764468</v>
+        <v>76.6430556907113</v>
       </c>
       <c r="D28" t="n">
-        <v>83.2779523662734</v>
+        <v>83.2787814520089</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
@@ -893,10 +893,10 @@
         <v>50.0526761494562</v>
       </c>
       <c r="C29" t="n">
-        <v>45.4730880996409</v>
+        <v>45.4719434410811</v>
       </c>
       <c r="D29" t="n">
-        <v>54.6322641992715</v>
+        <v>54.6334088578313</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -907,13 +907,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>68.2230493525959</v>
+        <v>68.2106860437125</v>
       </c>
       <c r="C30" t="n">
-        <v>66.7801873237022</v>
+        <v>66.767714507923</v>
       </c>
       <c r="D30" t="n">
-        <v>69.6659113814897</v>
+        <v>69.6536575795019</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -924,13 +924,13 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40.0726121730411</v>
+        <v>40.0825994382391</v>
       </c>
       <c r="C31" t="n">
-        <v>33.0436213737712</v>
+        <v>33.0521475410672</v>
       </c>
       <c r="D31" t="n">
-        <v>47.101602972311</v>
+        <v>47.1130513354109</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -944,10 +944,10 @@
         <v>70.5096250440257</v>
       </c>
       <c r="C32" t="n">
-        <v>65.5601874998381</v>
+        <v>65.5589503981622</v>
       </c>
       <c r="D32" t="n">
-        <v>75.4590625882132</v>
+        <v>75.4602996898891</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
@@ -961,10 +961,10 @@
         <v>85.8094575178289</v>
       </c>
       <c r="C33" t="n">
-        <v>82.6071962730562</v>
+        <v>82.6063958744822</v>
       </c>
       <c r="D33" t="n">
-        <v>89.0117187626016</v>
+        <v>89.0125191611756</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -978,10 +978,10 @@
         <v>65.453531060582</v>
       </c>
       <c r="C34" t="n">
-        <v>60.7088210906247</v>
+        <v>60.7076351601826</v>
       </c>
       <c r="D34" t="n">
-        <v>70.1982410305392</v>
+        <v>70.1994269609814</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -995,10 +995,10 @@
         <v>59.0497228374048</v>
       </c>
       <c r="C35" t="n">
-        <v>53.5373732963115</v>
+        <v>53.5359954959464</v>
       </c>
       <c r="D35" t="n">
-        <v>64.5620723784982</v>
+        <v>64.5634501788632</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -1012,10 +1012,10 @@
         <v>52.9697465266289</v>
       </c>
       <c r="C36" t="n">
-        <v>44.5466803525695</v>
+        <v>44.5445750246031</v>
       </c>
       <c r="D36" t="n">
-        <v>61.3928127006883</v>
+        <v>61.3949180286547</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -1029,10 +1029,10 @@
         <v>68.1133885660857</v>
       </c>
       <c r="C37" t="n">
-        <v>59.7639747143344</v>
+        <v>59.7618877956136</v>
       </c>
       <c r="D37" t="n">
-        <v>76.4628024178371</v>
+        <v>76.4648893365579</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -1046,10 +1046,10 @@
         <v>62.4933592998215</v>
       </c>
       <c r="C38" t="n">
-        <v>56.3373373427846</v>
+        <v>56.3357986578306</v>
       </c>
       <c r="D38" t="n">
-        <v>68.6493812568584</v>
+        <v>68.6509199418123</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -1063,10 +1063,10 @@
         <v>82.1857770240346</v>
       </c>
       <c r="C39" t="n">
-        <v>75.4613441771106</v>
+        <v>75.4596634190305</v>
       </c>
       <c r="D39" t="n">
-        <v>88.9102098709585</v>
+        <v>88.9118906290386</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -1077,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="n">
-        <v>80.9588089320726</v>
+        <v>80.9588089320727</v>
       </c>
       <c r="C40" t="n">
-        <v>71.420029923746</v>
+        <v>71.4176457256646</v>
       </c>
       <c r="D40" t="n">
-        <v>90.4975879403993</v>
+        <v>90.4999721384807</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -1097,10 +1097,10 @@
         <v>65.761912489692</v>
       </c>
       <c r="C41" t="n">
-        <v>61.9583909849812</v>
+        <v>61.957440302649</v>
       </c>
       <c r="D41" t="n">
-        <v>69.5654339944027</v>
+        <v>69.5663846767349</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1114,10 +1114,10 @@
         <v>78.0881738086362</v>
       </c>
       <c r="C42" t="n">
-        <v>74.624672563147</v>
+        <v>74.6238068681753</v>
       </c>
       <c r="D42" t="n">
-        <v>81.5516750541253</v>
+        <v>81.5525407490971</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -1131,10 +1131,10 @@
         <v>48.4661400062087</v>
       </c>
       <c r="C43" t="n">
-        <v>44.1407583453868</v>
+        <v>44.1396772251881</v>
       </c>
       <c r="D43" t="n">
-        <v>52.7915216670307</v>
+        <v>52.7926027872294</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
@@ -32,7 +32,9 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
+    <t xml:space="preserve">**Global**: 
+Implemented by 
+All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
@@ -74,10 +76,14 @@
     <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**: 
+All other HICs and 
+not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**: 
+Some countries (e.g. EU, UK, Brazil) 
+and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>
@@ -431,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.8161485502559</v>
+        <v>73.7967025168347</v>
       </c>
       <c r="C2" t="n">
-        <v>72.4542861110033</v>
+        <v>72.4340081020134</v>
       </c>
       <c r="D2" t="n">
-        <v>75.1780109895084</v>
+        <v>75.1593969316559</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -669,13 +675,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>69.211130206042</v>
+        <v>69.2050626917897</v>
       </c>
       <c r="C16" t="n">
-        <v>67.7830711918507</v>
+        <v>67.7760289281493</v>
       </c>
       <c r="D16" t="n">
-        <v>70.6391892202333</v>
+        <v>70.6340964554302</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>

--- a/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
+++ b/xlsx/country_comparison/variables_wealth_tax_support_by_country_pol.xlsx
@@ -32,9 +32,7 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">**Global**: 
-Implemented by 
-All other countries</t>
+    <t xml:space="preserve">**Global**:&lt;br&gt;Implemented by&lt;br&gt;All other countries</t>
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
@@ -76,14 +74,10 @@
     <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">**High-income**: 
-All other HICs and 
-not some MICs (such as China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**International**: 
-Some countries (e.g. EU, UK, Brazil) 
-and not others (e.g. U.S., China)</t>
+    <t xml:space="preserve">**High-income**:&lt;br&gt;All other HICs and&lt;br&gt;not some MICs (such as China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**International**:&lt;br&gt;Some countries (e.g. EU, UK, Brazil)&lt;br&gt;and not others (e.g. U.S., China)</t>
   </si>
 </sst>
 </file>
@@ -437,13 +431,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>73.7967025168347</v>
+        <v>73.8161485502559</v>
       </c>
       <c r="C2" t="n">
-        <v>72.4340081020134</v>
+        <v>72.4542861110033</v>
       </c>
       <c r="D2" t="n">
-        <v>75.1593969316559</v>
+        <v>75.1780109895084</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -675,13 +669,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>69.2050626917897</v>
+        <v>69.211130206042</v>
       </c>
       <c r="C16" t="n">
-        <v>67.7760289281493</v>
+        <v>67.7830711918507</v>
       </c>
       <c r="D16" t="n">
-        <v>70.6340964554302</v>
+        <v>70.6391892202333</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
